--- a/gsc-export/heatlabs.net-Coverage.xlsx
+++ b/gsc-export/heatlabs.net-Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="53">
   <si>
     <t>Date</t>
   </si>
@@ -104,6 +104,18 @@
     <t>2025-10-28</t>
   </si>
   <si>
+    <t>2025-10-29</t>
+  </si>
+  <si>
+    <t>2025-10-30</t>
+  </si>
+  <si>
+    <t>2025-10-31</t>
+  </si>
+  <si>
+    <t>2025-11-01</t>
+  </si>
+  <si>
     <t>Reason</t>
   </si>
   <si>
@@ -116,40 +128,40 @@
     <t>Pages</t>
   </si>
   <si>
+    <t>Alternate page with proper canonical tag</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
     <t>Not found (404)</t>
   </si>
   <si>
-    <t>Website</t>
-  </si>
-  <si>
-    <t>Failed</t>
-  </si>
-  <si>
     <t>Page with redirect</t>
   </si>
   <si>
+    <t>Duplicate, Google chose different canonical than user</t>
+  </si>
+  <si>
+    <t>Google systems</t>
+  </si>
+  <si>
+    <t>Crawled - currently not indexed</t>
+  </si>
+  <si>
     <t>Excluded by ‘noindex’ tag</t>
   </si>
   <si>
     <t>Not Started</t>
   </si>
   <si>
-    <t>Alternate page with proper canonical tag</t>
+    <t>Discovered - currently not indexed</t>
   </si>
   <si>
     <t>Started</t>
-  </si>
-  <si>
-    <t>Duplicate, Google chose different canonical than user</t>
-  </si>
-  <si>
-    <t>Google systems</t>
-  </si>
-  <si>
-    <t>Discovered - currently not indexed</t>
-  </si>
-  <si>
-    <t>Crawled - currently not indexed</t>
   </si>
   <si>
     <t>Property</t>
@@ -211,7 +223,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -565,6 +577,62 @@
       </c>
       <c r="D25" t="n" s="0">
         <v>20.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B26" t="n" s="0">
+        <v>113.0</v>
+      </c>
+      <c r="C26" t="n" s="0">
+        <v>181.0</v>
+      </c>
+      <c r="D26" t="n" s="0">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B27" t="n" s="0">
+        <v>113.0</v>
+      </c>
+      <c r="C27" t="n" s="0">
+        <v>181.0</v>
+      </c>
+      <c r="D27" t="n" s="0">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B28" t="n" s="0">
+        <v>113.0</v>
+      </c>
+      <c r="C28" t="n" s="0">
+        <v>181.0</v>
+      </c>
+      <c r="D28" t="n" s="0">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B29" t="n" s="0">
+        <v>113.0</v>
+      </c>
+      <c r="C29" t="n" s="0">
+        <v>181.0</v>
+      </c>
+      <c r="D29" t="s" s="0">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -582,114 +650,114 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>4.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>12.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="B5" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>40</v>
-      </c>
       <c r="D5" t="n" s="0">
-        <v>13.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>50.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>49.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>1.0</v>
+        <v>25.0</v>
       </c>
     </row>
   </sheetData>
@@ -707,16 +775,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -734,18 +802,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/heatlabs.net-Coverage.xlsx
+++ b/gsc-export/heatlabs.net-Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="53">
   <si>
     <t>Date</t>
   </si>
@@ -631,8 +631,8 @@
       <c r="C29" t="n" s="0">
         <v>181.0</v>
       </c>
-      <c r="D29" t="s" s="0">
-        <v>5</v>
+      <c r="D29" t="n" s="0">
+        <v>21.0</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/heatlabs.net-Coverage.xlsx
+++ b/gsc-export/heatlabs.net-Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="56">
   <si>
     <t>Date</t>
   </si>
@@ -114,6 +114,15 @@
   </si>
   <si>
     <t>2025-11-01</t>
+  </si>
+  <si>
+    <t>2025-11-02</t>
+  </si>
+  <si>
+    <t>2025-11-03</t>
+  </si>
+  <si>
+    <t>2025-11-04</t>
   </si>
   <si>
     <t>Reason</t>
@@ -223,7 +232,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -633,6 +642,48 @@
       </c>
       <c r="D29" t="n" s="0">
         <v>21.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="B30" t="n" s="0">
+        <v>100.0</v>
+      </c>
+      <c r="C30" t="n" s="0">
+        <v>203.0</v>
+      </c>
+      <c r="D30" t="n" s="0">
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B31" t="n" s="0">
+        <v>100.0</v>
+      </c>
+      <c r="C31" t="n" s="0">
+        <v>203.0</v>
+      </c>
+      <c r="D31" t="n" s="0">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="B32" t="n" s="0">
+        <v>100.0</v>
+      </c>
+      <c r="C32" t="n" s="0">
+        <v>203.0</v>
+      </c>
+      <c r="D32" t="s" s="0">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -650,83 +701,83 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>19.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="B4" t="s" s="0">
-        <v>38</v>
-      </c>
       <c r="C4" t="s" s="0">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="B5" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>39</v>
-      </c>
       <c r="D5" t="n" s="0">
-        <v>44.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D6" t="n" s="0">
         <v>4.0</v>
@@ -734,30 +785,30 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>25.0</v>
+        <v>6.0</v>
       </c>
     </row>
   </sheetData>
@@ -775,16 +826,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -802,18 +853,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/heatlabs.net-Coverage.xlsx
+++ b/gsc-export/heatlabs.net-Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="56">
   <si>
     <t>Date</t>
   </si>
@@ -152,25 +152,25 @@
     <t>Page with redirect</t>
   </si>
   <si>
+    <t>Excluded by ‘noindex’ tag</t>
+  </si>
+  <si>
+    <t>Not Started</t>
+  </si>
+  <si>
     <t>Duplicate, Google chose different canonical than user</t>
   </si>
   <si>
     <t>Google systems</t>
   </si>
   <si>
+    <t>Started</t>
+  </si>
+  <si>
+    <t>Discovered - currently not indexed</t>
+  </si>
+  <si>
     <t>Crawled - currently not indexed</t>
-  </si>
-  <si>
-    <t>Excluded by ‘noindex’ tag</t>
-  </si>
-  <si>
-    <t>Not Started</t>
-  </si>
-  <si>
-    <t>Discovered - currently not indexed</t>
-  </si>
-  <si>
-    <t>Started</t>
   </si>
   <si>
     <t>Property</t>
@@ -682,8 +682,8 @@
       <c r="C32" t="n" s="0">
         <v>203.0</v>
       </c>
-      <c r="D32" t="s" s="0">
-        <v>5</v>
+      <c r="D32" t="n" s="0">
+        <v>25.0</v>
       </c>
     </row>
   </sheetData>
@@ -760,13 +760,13 @@
         <v>45</v>
       </c>
       <c r="B5" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="C5" t="s" s="0">
-        <v>42</v>
-      </c>
       <c r="D5" t="n" s="0">
-        <v>42.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="6">
@@ -774,41 +774,41 @@
         <v>47</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>4.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s" s="0">
         <v>48</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>41</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>49</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>13.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
   </sheetData>
